--- a/piemrs2.xlsx
+++ b/piemrs2.xlsx
@@ -39,13 +39,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -56,7 +62,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -88,27 +94,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -428,280 +431,280 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
+      <c r="C1" s="2"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="2"/>
-      <c r="G1" s="3"/>
+      <c r="G1" s="2"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="2"/>
-      <c r="K1" s="3"/>
+      <c r="K1" s="2"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="2"/>
-      <c r="O1" s="3"/>
+      <c r="O1" s="2"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="2"/>
-      <c r="S1" s="3"/>
+      <c r="S1" s="2"/>
       <c r="T1" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="3"/>
+      <c r="C2" s="2"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="3"/>
+      <c r="G2" s="2"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="3"/>
+      <c r="K2" s="2"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="2"/>
-      <c r="O2" s="3"/>
+      <c r="O2" s="2"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="2"/>
-      <c r="S2" s="3"/>
+      <c r="S2" s="2"/>
       <c r="T2" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1"/>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="4" t="s">
+      <c r="D3" s="4"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="4" t="s">
+      <c r="H3" s="4"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="5"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="4" t="s">
+      <c r="L3" s="4"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="4" t="s">
+      <c r="P3" s="4"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="S3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T3" s="5"/>
+      <c r="T3" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1"/>
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <f>4.25/100</f>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>1.413</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <f>8.8/100</f>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="6">
         <v>2.339</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="7">
+      <c r="J4" s="6">
         <f>22.9/100</f>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="6">
         <v>4.748</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-      <c r="N4" s="7">
+      <c r="N4" s="6">
         <f>5.7/100</f>
       </c>
-      <c r="O4" s="7">
+      <c r="O4" s="6">
         <v>2.276</v>
       </c>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
-      <c r="R4" s="7">
+      <c r="R4" s="6">
         <f>17.6/100</f>
       </c>
-      <c r="S4" s="7">
+      <c r="S4" s="6">
         <v>3.847</v>
       </c>
       <c r="T4" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>1.411</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="7">
+      <c r="G5" s="6">
         <v>2.399</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="7">
+      <c r="K5" s="6">
         <v>4.83</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="2"/>
-      <c r="O5" s="7">
+      <c r="O5" s="6">
         <v>2.162</v>
       </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="2"/>
-      <c r="S5" s="7">
+      <c r="S5" s="6">
         <v>3.938</v>
       </c>
       <c r="T5" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <v>1.49</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="7">
+      <c r="G6" s="6">
         <v>2.417</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="7">
+      <c r="K6" s="6">
         <v>4.82</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="2"/>
-      <c r="O6" s="7">
+      <c r="O6" s="6">
         <v>2.162</v>
       </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="2"/>
-      <c r="S6" s="7">
+      <c r="S6" s="6">
         <v>3.893</v>
       </c>
       <c r="T6" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <v>1.488</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="7">
+      <c r="G7" s="6">
         <v>2.391</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="2"/>
-      <c r="K7" s="7">
+      <c r="K7" s="6">
         <v>4.745</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="2"/>
-      <c r="O7" s="7">
+      <c r="O7" s="6">
         <v>2.143</v>
       </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="2"/>
-      <c r="S7" s="7">
+      <c r="S7" s="6">
         <v>3.882</v>
       </c>
       <c r="T7" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <v>1.485</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="7">
+      <c r="G8" s="6">
         <v>2.438</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="7">
+      <c r="K8" s="6">
         <v>4.873</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="2"/>
-      <c r="O8" s="7">
+      <c r="O8" s="6">
         <v>2.13</v>
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="2"/>
-      <c r="S8" s="7">
+      <c r="S8" s="6">
         <v>3.887</v>
       </c>
       <c r="T8" s="1"/>
